--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Final 450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6667AB-2866-4FBC-9215-4ACF67552E98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E91CC50-9F9B-41C6-9BDE-1F53CB1A56F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1512,7 +1512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1531,12 +1531,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1551,7 +1545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1585,13 +1579,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1911,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1957,7 +1945,7 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2056,7 +2044,7 @@
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>465</v>
       </c>
       <c r="D15" t="s">
@@ -2073,7 +2061,7 @@
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2112,8 +2100,8 @@
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>4</v>
+      <c r="C19" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21">
@@ -2123,8 +2111,8 @@
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>4</v>
+      <c r="C20" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21">
@@ -2134,8 +2122,8 @@
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>4</v>
+      <c r="C21" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21">
@@ -2145,8 +2133,8 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>4</v>
+      <c r="C22" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21">
@@ -2156,8 +2144,8 @@
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>4</v>
+      <c r="C23" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21">
@@ -2378,7 +2366,7 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="15" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2389,7 +2377,7 @@
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="15" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2496,7 +2484,7 @@
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="15" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2507,8 +2495,8 @@
       <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>4</v>
+      <c r="C57" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Final 450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E91CC50-9F9B-41C6-9BDE-1F53CB1A56F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0279C4-3046-4BB6-A88F-EC929C9A9701}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1545,7 +1545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1579,9 +1579,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1899,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2155,8 +2152,8 @@
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>4</v>
+      <c r="C24" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21">
@@ -2166,8 +2163,8 @@
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>4</v>
+      <c r="C25" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21">
@@ -2177,8 +2174,8 @@
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>4</v>
+      <c r="C26" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21">
@@ -2366,7 +2363,7 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2377,7 +2374,7 @@
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2484,7 +2481,7 @@
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2495,7 +2492,7 @@
       <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2506,8 +2503,8 @@
       <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>4</v>
+      <c r="C58" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2517,8 +2514,8 @@
       <c r="B59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>4</v>
+      <c r="C59" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Final 450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0279C4-3046-4BB6-A88F-EC929C9A9701}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5354C13-C014-4A44-9B5F-FE82AFFBCE81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2196,8 +2196,8 @@
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>4</v>
+      <c r="C28" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21">
@@ -2207,8 +2207,8 @@
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>4</v>
+      <c r="C29" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21">
@@ -2218,8 +2218,8 @@
       <c r="B30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>4</v>
+      <c r="C30" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21">
@@ -2229,8 +2229,8 @@
       <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>4</v>
+      <c r="C31" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21">
@@ -2240,8 +2240,8 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>4</v>
+      <c r="C32" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Final 450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5354C13-C014-4A44-9B5F-FE82AFFBCE81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A88FC1-53DE-45EF-A01C-336B68C142BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1435,6 +1435,9 @@
   </si>
   <si>
     <t>Linear Approach Remaining</t>
+  </si>
+  <si>
+    <t>Not Found</t>
   </si>
 </sst>
 </file>
@@ -1896,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2244,73 +2247,73 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21">
+      <c r="C33" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21">
+      <c r="C34" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21">
+      <c r="C35" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="21">
+      <c r="C36" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="21">
+      <c r="C37" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="21">
+      <c r="C38" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="21">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2320,43 +2323,46 @@
       <c r="C39" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="21">
+      <c r="D39" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="21">
+      <c r="C40" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="21">
+      <c r="C41" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" spans="1:4" ht="21">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" spans="1:4" ht="21">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" spans="1:4" ht="21">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Final 450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A88FC1-53DE-45EF-A01C-336B68C142BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49DC909-1B73-4930-AF4F-7099673C43CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1515,7 +1515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1534,6 +1534,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1548,7 +1554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1582,6 +1588,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1899,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B101" activeCellId="1" sqref="B103 B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2968,8 +2977,8 @@
       <c r="B101" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="13" t="s">
-        <v>4</v>
+      <c r="C101" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
@@ -2979,8 +2988,8 @@
       <c r="B102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="13" t="s">
-        <v>4</v>
+      <c r="C102" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -3034,8 +3043,8 @@
       <c r="B107" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="13" t="s">
-        <v>4</v>
+      <c r="C107" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
@@ -3045,8 +3054,8 @@
       <c r="B108" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>4</v>
+      <c r="C108" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Final 450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49DC909-1B73-4930-AF4F-7099673C43CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83E7C07-60D8-4043-8733-ADA2C740BEB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B101" activeCellId="1" sqref="B103 B101"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2540,8 +2540,8 @@
       <c r="B60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>4</v>
+      <c r="C60" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
@@ -2661,8 +2661,8 @@
       <c r="B71" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>4</v>
+      <c r="C71" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Final 450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83E7C07-60D8-4043-8733-ADA2C740BEB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710FACA9-3C6E-4AA6-9DFB-A525B8526135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2455,8 +2455,8 @@
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>4</v>
+      <c r="C51" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2477,8 +2477,8 @@
       <c r="B53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>4</v>
+      <c r="C53" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Final 450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710FACA9-3C6E-4AA6-9DFB-A525B8526135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71130DCA-2378-4810-B727-8A53AB5B6C1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2903,8 +2903,8 @@
       <c r="B93" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>4</v>
+      <c r="C93" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21">
@@ -2947,8 +2947,8 @@
       <c r="B97" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>4</v>
+      <c r="C97" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="21">
@@ -2958,8 +2958,8 @@
       <c r="B98" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>4</v>
+      <c r="C98" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="99" spans="1:3">
